--- a/Team-Data/2011-12/4-4-2011-12.xlsx
+++ b/Team-Data/2011-12/4-4-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,106 +733,106 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
         <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.582</v>
+        <v>0.574</v>
       </c>
       <c r="H2" t="n">
         <v>49.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J2" t="n">
         <v>81.2</v>
       </c>
       <c r="K2" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L2" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
         <v>19.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O2" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="P2" t="n">
         <v>20.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.734</v>
+        <v>0.731</v>
       </c>
       <c r="R2" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S2" t="n">
         <v>31.1</v>
       </c>
       <c r="T2" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U2" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="V2" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
         <v>5</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
         <v>19.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK2" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -777,7 +844,7 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
         <v>24</v>
@@ -795,16 +862,16 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW2" t="n">
         <v>13</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>18</v>
@@ -816,10 +883,10 @@
         <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
         <v>0.458</v>
@@ -875,37 +942,37 @@
         <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
         <v>0.36</v>
       </c>
       <c r="O3" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.777</v>
+        <v>0.781</v>
       </c>
       <c r="R3" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T3" t="n">
         <v>38.6</v>
       </c>
       <c r="U3" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V3" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X3" t="n">
         <v>5.6</v>
@@ -914,28 +981,28 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="n">
         <v>9</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
@@ -950,58 +1017,58 @@
         <v>5</v>
       </c>
       <c r="AL3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM3" t="n">
         <v>23</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>24</v>
       </c>
       <c r="AN3" t="n">
         <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV3" t="n">
         <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
         <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB3" t="n">
         <v>27</v>
       </c>
       <c r="BC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G4" t="n">
-        <v>0.135</v>
+        <v>0.137</v>
       </c>
       <c r="H4" t="n">
         <v>48.2</v>
       </c>
       <c r="I4" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="J4" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.416</v>
+        <v>0.415</v>
       </c>
       <c r="L4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M4" t="n">
         <v>13.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.302</v>
+        <v>0.301</v>
       </c>
       <c r="O4" t="n">
         <v>16.6</v>
@@ -1069,10 +1136,10 @@
         <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
         <v>28.9</v>
@@ -1087,25 +1154,25 @@
         <v>14.2</v>
       </c>
       <c r="W4" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X4" t="n">
         <v>5.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA4" t="n">
         <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>88</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-12.8</v>
+        <v>-12.5</v>
       </c>
       <c r="AD4" t="n">
         <v>28</v>
@@ -1147,7 +1214,7 @@
         <v>14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
@@ -1168,13 +1235,13 @@
         <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
         <v>1</v>
@@ -1305,7 +1372,7 @@
         <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
@@ -1323,10 +1390,10 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>27</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1356,13 +1423,13 @@
         <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA5" t="n">
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -1394,82 +1461,82 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J6" t="n">
-        <v>81.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L6" t="n">
         <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O6" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.707</v>
+        <v>0.705</v>
       </c>
       <c r="R6" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>29.6</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
         <v>42.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X6" t="n">
         <v>4.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z6" t="n">
         <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>28</v>
@@ -1487,28 +1554,28 @@
         <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>13</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,19 +1584,19 @@
         <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT6" t="n">
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV6" t="n">
         <v>25</v>
       </c>
       <c r="AW6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
         <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1597,25 +1664,25 @@
         <v>81.5</v>
       </c>
       <c r="K7" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L7" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N7" t="n">
         <v>0.331</v>
       </c>
       <c r="O7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P7" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R7" t="n">
         <v>9.9</v>
@@ -1624,7 +1691,7 @@
         <v>32.4</v>
       </c>
       <c r="T7" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U7" t="n">
         <v>21</v>
@@ -1642,19 +1709,19 @@
         <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AA7" t="n">
         <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1666,7 +1733,7 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
@@ -1675,7 +1742,7 @@
         <v>14</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,10 +1751,10 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>25</v>
@@ -1699,13 +1766,13 @@
         <v>28</v>
       </c>
       <c r="AS7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
         <v>14</v>
       </c>
       <c r="AU7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
         <v>7</v>
@@ -1714,7 +1781,7 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="n">
         <v>29</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.537</v>
+        <v>0.547</v>
       </c>
       <c r="H8" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
         <v>81.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
         <v>6.5</v>
@@ -1788,37 +1855,37 @@
         <v>20.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
       <c r="O8" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P8" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="Q8" t="n">
         <v>0.738</v>
       </c>
       <c r="R8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>32.2</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W8" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
         <v>6.4</v>
@@ -1830,19 +1897,19 @@
         <v>22.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.3</v>
+        <v>103.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>13</v>
@@ -1854,19 +1921,19 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1881,28 +1948,28 @@
         <v>17</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV8" t="n">
         <v>28</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-5.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2054,10 +2121,10 @@
         <v>16</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -2122,22 +2189,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>32</v>
       </c>
       <c r="G10" t="n">
-        <v>0.396</v>
+        <v>0.385</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J10" t="n">
         <v>81.8</v>
@@ -2146,40 +2213,40 @@
         <v>0.457</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M10" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.385</v>
+        <v>0.387</v>
       </c>
       <c r="O10" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P10" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R10" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S10" t="n">
         <v>29.6</v>
       </c>
       <c r="T10" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="U10" t="n">
         <v>22.2</v>
       </c>
       <c r="V10" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>5.5</v>
@@ -2188,19 +2255,19 @@
         <v>4.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.90000000000001</v>
+        <v>98</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2215,13 +2282,13 @@
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2233,13 +2300,13 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2260,7 +2327,7 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -2382,22 +2449,22 @@
         <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="n">
         <v>5</v>
@@ -2415,13 +2482,13 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>15</v>
@@ -2439,7 +2506,7 @@
         <v>15</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
         <v>17</v>
@@ -2448,7 +2515,7 @@
         <v>20</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -2486,58 +2553,58 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
         <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.611</v>
+        <v>0.604</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="J12" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.441</v>
+        <v>0.438</v>
       </c>
       <c r="L12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="N12" t="n">
         <v>0.367</v>
       </c>
       <c r="O12" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P12" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="R12" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S12" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U12" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="V12" t="n">
         <v>14.3</v>
@@ -2549,22 +2616,22 @@
         <v>5.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
         <v>21.9</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,16 +2643,16 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>19</v>
@@ -2594,7 +2661,7 @@
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2603,10 +2670,10 @@
         <v>3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS12" t="n">
         <v>12</v>
@@ -2615,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV12" t="n">
         <v>13</v>
@@ -2627,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2636,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="BB12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
         <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.593</v>
+        <v>0.604</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K13" t="n">
         <v>0.452</v>
@@ -2695,67 +2762,67 @@
         <v>7.6</v>
       </c>
       <c r="M13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N13" t="n">
         <v>0.351</v>
       </c>
       <c r="O13" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P13" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S13" t="n">
         <v>29.7</v>
       </c>
       <c r="T13" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
         <v>13.3</v>
       </c>
       <c r="W13" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z13" t="n">
         <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2764,7 +2831,7 @@
         <v>14</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK13" t="n">
         <v>12</v>
@@ -2788,22 +2855,22 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AS13" t="n">
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX13" t="n">
         <v>22</v>
@@ -2818,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="BB13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.636</v>
+        <v>0.63</v>
       </c>
       <c r="H14" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I14" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J14" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L14" t="n">
         <v>5.5</v>
@@ -2880,40 +2947,40 @@
         <v>17.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="O14" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>23.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R14" t="n">
         <v>11.7</v>
       </c>
       <c r="S14" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T14" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U14" t="n">
         <v>22</v>
       </c>
       <c r="V14" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W14" t="n">
         <v>5.9</v>
       </c>
       <c r="X14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z14" t="n">
         <v>17.3</v>
@@ -2922,13 +2989,13 @@
         <v>20.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>96.5</v>
+        <v>96.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2949,10 +3016,10 @@
         <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>18</v>
@@ -2967,7 +3034,7 @@
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>14</v>
@@ -2982,7 +3049,7 @@
         <v>8</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW14" t="n">
         <v>30</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
         <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3056,22 +3123,22 @@
         <v>0.446</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M15" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.323</v>
+        <v>0.32</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
         <v>12.5</v>
@@ -3086,10 +3153,10 @@
         <v>19.6</v>
       </c>
       <c r="V15" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W15" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="X15" t="n">
         <v>5.2</v>
@@ -3101,25 +3168,25 @@
         <v>20</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG15" t="n">
         <v>9</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>10</v>
@@ -3131,7 +3198,7 @@
         <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3140,7 +3207,7 @@
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3149,13 +3216,13 @@
         <v>13</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
@@ -3173,16 +3240,16 @@
         <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -3214,91 +3281,91 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="n">
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>0.736</v>
+        <v>0.731</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K16" t="n">
-        <v>0.476</v>
+        <v>0.478</v>
       </c>
       <c r="L16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M16" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P16" t="n">
         <v>25.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T16" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V16" t="n">
         <v>15</v>
       </c>
       <c r="W16" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z16" t="n">
         <v>19.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC16" t="n">
         <v>7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -3307,13 +3374,13 @@
         <v>5</v>
       </c>
       <c r="AI16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ16" t="n">
         <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="n">
         <v>20</v>
@@ -3328,10 +3395,10 @@
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3340,10 +3407,10 @@
         <v>10</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3352,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -3396,46 +3463,46 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
         <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.481</v>
+        <v>0.472</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>37.9</v>
+        <v>37.7</v>
       </c>
       <c r="J17" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.443</v>
+        <v>0.44</v>
       </c>
       <c r="L17" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M17" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O17" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P17" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.782</v>
+        <v>0.786</v>
       </c>
       <c r="R17" t="n">
         <v>12.6</v>
@@ -3447,13 +3514,13 @@
         <v>41.9</v>
       </c>
       <c r="U17" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V17" t="n">
         <v>14</v>
       </c>
       <c r="W17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.7</v>
@@ -3462,19 +3529,19 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
         <v>19.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3489,7 +3556,7 @@
         <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>2</v>
@@ -3498,13 +3565,13 @@
         <v>20</v>
       </c>
       <c r="AL17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM17" t="n">
         <v>14</v>
       </c>
-      <c r="AM17" t="n">
-        <v>15</v>
-      </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
@@ -3513,7 +3580,7 @@
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR17" t="n">
         <v>5</v>
@@ -3528,10 +3595,10 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW17" t="n">
         <v>8</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>20</v>
@@ -3540,13 +3607,13 @@
         <v>9</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
         <v>25</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>0.446</v>
+        <v>0.455</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
@@ -3596,46 +3663,46 @@
         <v>35.9</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K18" t="n">
         <v>0.436</v>
       </c>
       <c r="L18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="N18" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O18" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P18" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R18" t="n">
         <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T18" t="n">
-        <v>44.3</v>
+        <v>44.2</v>
       </c>
       <c r="U18" t="n">
         <v>19.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
         <v>4.1</v>
@@ -3644,13 +3711,13 @@
         <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>-0.6</v>
@@ -3659,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>21</v>
@@ -3686,7 +3753,7 @@
         <v>6</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO18" t="n">
         <v>4</v>
@@ -3695,10 +3762,10 @@
         <v>5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>8</v>
@@ -3710,13 +3777,13 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY18" t="n">
         <v>22</v>
@@ -3728,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -3760,31 +3827,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
       </c>
       <c r="F19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="J19" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="K19" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M19" t="n">
         <v>23.3</v>
@@ -3796,28 +3863,28 @@
         <v>17</v>
       </c>
       <c r="P19" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R19" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
         <v>28.2</v>
       </c>
       <c r="T19" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U19" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V19" t="n">
         <v>15.2</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X19" t="n">
         <v>4.1</v>
@@ -3832,16 +3899,16 @@
         <v>19.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
@@ -3850,7 +3917,7 @@
         <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3868,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3877,7 +3944,7 @@
         <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>9</v>
@@ -3892,13 +3959,13 @@
         <v>22</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
         <v>14</v>
@@ -3907,7 +3974,7 @@
         <v>10</v>
       </c>
       <c r="BA19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="n">
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>0.259</v>
+        <v>0.245</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,10 +4027,10 @@
         <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>78.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L20" t="n">
         <v>3.9</v>
@@ -3972,16 +4039,16 @@
         <v>11.7</v>
       </c>
       <c r="N20" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="O20" t="n">
         <v>15</v>
       </c>
       <c r="P20" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
         <v>11.2</v>
@@ -3990,7 +4057,7 @@
         <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U20" t="n">
         <v>20.8</v>
@@ -4002,7 +4069,7 @@
         <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,16 +4078,16 @@
         <v>20.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>89</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4050,13 +4117,13 @@
         <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
         <v>14</v>
@@ -4080,13 +4147,13 @@
         <v>22</v>
       </c>
       <c r="AX20" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -4202,22 +4269,22 @@
         <v>2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
         <v>18</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>18</v>
       </c>
       <c r="AH21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI21" t="n">
         <v>21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>22</v>
       </c>
       <c r="AJ21" t="n">
         <v>19</v>
@@ -4247,10 +4314,10 @@
         <v>12</v>
       </c>
       <c r="AS21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4265,7 +4332,7 @@
         <v>24</v>
       </c>
       <c r="AY21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4274,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="BB21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="n">
         <v>40</v>
       </c>
       <c r="F22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="n">
-        <v>0.741</v>
+        <v>0.755</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,10 +4391,10 @@
         <v>37.6</v>
       </c>
       <c r="J22" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L22" t="n">
         <v>7.1</v>
@@ -4336,34 +4403,34 @@
         <v>19.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P22" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="R22" t="n">
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U22" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="V22" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>7.9</v>
@@ -4372,43 +4439,43 @@
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
         <v>19.9</v>
       </c>
       <c r="AB22" t="n">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG22" t="n">
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM22" t="n">
         <v>12</v>
@@ -4429,28 +4496,28 @@
         <v>21</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -4566,22 +4633,22 @@
         <v>1.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4617,13 +4684,13 @@
         <v>13</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX23" t="n">
         <v>26</v>
@@ -4641,7 +4708,7 @@
         <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
         <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.537</v>
+        <v>0.547</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J24" t="n">
-        <v>83.8</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K24" t="n">
         <v>0.448</v>
@@ -4700,61 +4767,61 @@
         <v>14.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O24" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="P24" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.737</v>
+        <v>0.736</v>
       </c>
       <c r="R24" t="n">
         <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T24" t="n">
-        <v>43</v>
+        <v>43.3</v>
       </c>
       <c r="U24" t="n">
         <v>21.8</v>
       </c>
       <c r="V24" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="W24" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA24" t="n">
         <v>16.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>93.3</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -4763,22 +4830,22 @@
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ24" t="n">
         <v>4</v>
       </c>
       <c r="AK24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,31 +4857,31 @@
         <v>23</v>
       </c>
       <c r="AR24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY24" t="n">
         <v>16</v>
       </c>
-      <c r="AY24" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
@@ -4823,7 +4890,7 @@
         <v>22</v>
       </c>
       <c r="BC24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -4852,49 +4919,49 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" t="n">
         <v>26</v>
       </c>
       <c r="G25" t="n">
-        <v>0.519</v>
+        <v>0.509</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J25" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K25" t="n">
         <v>0.455</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="O25" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P25" t="n">
         <v>21.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.754</v>
+        <v>0.758</v>
       </c>
       <c r="R25" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
         <v>30.9</v>
@@ -4906,40 +4973,40 @@
         <v>22.6</v>
       </c>
       <c r="V25" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X25" t="n">
         <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA25" t="n">
         <v>19.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
@@ -4948,46 +5015,46 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO25" t="n">
         <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU25" t="n">
         <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" t="n">
         <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>0.473</v>
+        <v>0.463</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5058,19 +5125,19 @@
         <v>0.446</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
       <c r="O26" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q26" t="n">
         <v>0.793</v>
@@ -5079,13 +5146,13 @@
         <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U26" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V26" t="n">
         <v>14.1</v>
@@ -5100,19 +5167,19 @@
         <v>4.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB26" t="n">
         <v>97.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,25 +5191,25 @@
         <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM26" t="n">
         <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
         <v>12</v>
@@ -5157,28 +5224,28 @@
         <v>18</v>
       </c>
       <c r="AS26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AT26" t="n">
         <v>25</v>
       </c>
       <c r="AU26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
       </c>
       <c r="AW26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY26" t="n">
         <v>10</v>
       </c>
-      <c r="AX26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>8</v>
-      </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -5294,22 +5361,22 @@
         <v>-5.4</v>
       </c>
       <c r="AD27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI27" t="n">
         <v>10</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
@@ -5327,7 +5394,7 @@
         <v>28</v>
       </c>
       <c r="AO27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
         <v>10</v>
@@ -5339,10 +5406,10 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>26</v>
@@ -5351,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX27" t="n">
         <v>19</v>
@@ -5360,13 +5427,13 @@
         <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA27" t="n">
         <v>9</v>
       </c>
       <c r="BB27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" t="n">
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>0.731</v>
+        <v>0.725</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
@@ -5416,25 +5483,25 @@
         <v>39</v>
       </c>
       <c r="J28" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.387</v>
+        <v>0.391</v>
       </c>
       <c r="O28" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q28" t="n">
         <v>0.729</v>
@@ -5443,13 +5510,13 @@
         <v>10.4</v>
       </c>
       <c r="S28" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T28" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V28" t="n">
         <v>13.3</v>
@@ -5464,16 +5531,16 @@
         <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.6</v>
+        <v>101.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AD28" t="n">
         <v>28</v>
@@ -5482,7 +5549,7 @@
         <v>4</v>
       </c>
       <c r="AF28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG28" t="n">
         <v>4</v>
@@ -5509,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
         <v>25</v>
@@ -5521,19 +5588,19 @@
         <v>24</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX28" t="n">
         <v>25</v>
@@ -5542,7 +5609,7 @@
         <v>17</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
         <v>21</v>
@@ -5551,7 +5618,7 @@
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -5580,64 +5647,64 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
         <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0.364</v>
+        <v>0.352</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J29" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L29" t="n">
         <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O29" t="n">
         <v>16.9</v>
       </c>
       <c r="P29" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R29" t="n">
         <v>10.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U29" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V29" t="n">
         <v>15.1</v>
       </c>
       <c r="W29" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
         <v>4.9</v>
@@ -5646,25 +5713,25 @@
         <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>91.90000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.1</v>
+        <v>-3.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
         <v>24</v>
@@ -5682,28 +5749,28 @@
         <v>19</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
         <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
@@ -5715,13 +5782,13 @@
         <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="n">
         <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.509</v>
+        <v>0.519</v>
       </c>
       <c r="H30" t="n">
         <v>48.8</v>
@@ -5780,34 +5847,34 @@
         <v>38.2</v>
       </c>
       <c r="J30" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L30" t="n">
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.307</v>
+        <v>0.306</v>
       </c>
       <c r="O30" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P30" t="n">
         <v>25</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R30" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S30" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T30" t="n">
         <v>43.9</v>
@@ -5816,7 +5883,7 @@
         <v>21.7</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W30" t="n">
         <v>8.300000000000001</v>
@@ -5828,28 +5895,28 @@
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC30" t="n">
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5885,7 +5952,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT30" t="n">
         <v>4</v>
@@ -5894,16 +5961,16 @@
         <v>11</v>
       </c>
       <c r="AV30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5912,7 +5979,7 @@
         <v>8</v>
       </c>
       <c r="BB30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC30" t="n">
         <v>19</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G31" t="n">
-        <v>0.222</v>
+        <v>0.226</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5965,7 +6032,7 @@
         <v>82.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L31" t="n">
         <v>5.2</v>
@@ -5977,22 +6044,22 @@
         <v>0.321</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R31" t="n">
         <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U31" t="n">
         <v>18.5</v>
@@ -6004,25 +6071,25 @@
         <v>7.8</v>
       </c>
       <c r="X31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z31" t="n">
         <v>21.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB31" t="n">
         <v>93.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7</v>
+        <v>-6.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>7</v>
@@ -6052,10 +6119,10 @@
         <v>21</v>
       </c>
       <c r="AN31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
@@ -6067,7 +6134,7 @@
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AT31" t="n">
         <v>21</v>
@@ -6088,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-4-2011-12</t>
+          <t>2012-04-04</t>
         </is>
       </c>
     </row>
